--- a/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
+++ b/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping_With_BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACAFDE0-E801-456F-8A29-7708380E9A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{217D6FA4-C92A-4663-B4FA-965B2E6540A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="2730" windowWidth="27735" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="27210" yWindow="2505" windowWidth="27735" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -605,7 +605,7 @@
     <col min="10" max="1017" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -639,43 +639,64 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -683,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -691,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -699,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -707,7 +728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -715,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -723,7 +744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -731,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -739,7 +760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -747,7 +768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -755,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -763,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -771,41 +792,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -813,62 +816,62 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -966,7 +969,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H19 B3:B50" xr:uid="{86C45E49-9757-42EB-8771-8C8BA552DA4F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L5 B3:B50" xr:uid="{86C45E49-9757-42EB-8771-8C8BA552DA4F}">
       <formula1>$E$2:$E$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
+++ b/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping_With_BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217D6FA4-C92A-4663-B4FA-965B2E6540A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D61CCB1-F897-4A7F-BDAA-1338A474C8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="27210" yWindow="2505" windowWidth="27735" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="29175" yWindow="855" windowWidth="27735" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Stock</t>
   </si>
@@ -123,10 +123,55 @@
     <t>VAR1.DE</t>
   </si>
   <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>SOW.DE</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>PHIA.AS</t>
+  </si>
+  <si>
+    <t>PNDORA.CO</t>
+  </si>
+  <si>
+    <t>HEIA.AS</t>
+  </si>
+  <si>
+    <t>BSL.AX</t>
+  </si>
+  <si>
+    <t>RBI.VI</t>
+  </si>
+  <si>
+    <t>SOLB.BR</t>
+  </si>
+  <si>
+    <t>UG.PA</t>
+  </si>
+  <si>
+    <t>HLMA.L</t>
+  </si>
+  <si>
+    <t>0857.HK</t>
+  </si>
+  <si>
+    <t>SAN.MC</t>
+  </si>
+  <si>
+    <t>CPR.MI</t>
+  </si>
+  <si>
+    <t>8035.T</t>
+  </si>
+  <si>
+    <t>UHR.SW</t>
   </si>
 </sst>
 </file>
@@ -588,13 +633,13 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K2" sqref="K2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
@@ -602,7 +647,10 @@
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="1017" width="11.5703125"/>
+    <col min="10" max="10" width="11.5703125"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="1017" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -638,25 +686,34 @@
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -670,10 +727,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>26</v>
@@ -687,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>26</v>
@@ -703,6 +760,15 @@
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -711,6 +777,15 @@
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -719,6 +794,15 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -727,6 +811,15 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -735,6 +828,15 @@
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -743,6 +845,15 @@
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -751,6 +862,15 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -759,6 +879,15 @@
       <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -767,6 +896,15 @@
       <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -775,6 +913,15 @@
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -783,95 +930,140 @@
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -969,7 +1161,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L5 B3:B50" xr:uid="{86C45E49-9757-42EB-8771-8C8BA552DA4F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4 B3:B50" xr:uid="{86C45E49-9757-42EB-8771-8C8BA552DA4F}">
       <formula1>$E$2:$E$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
+++ b/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping_With_BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D61CCB1-F897-4A7F-BDAA-1338A474C8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A02C65-C9F3-4544-A1FA-BA10D7F54DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29175" yWindow="855" windowWidth="27735" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K20"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,10 +698,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
@@ -1161,7 +1161,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4 B3:B50" xr:uid="{86C45E49-9757-42EB-8771-8C8BA552DA4F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4 B4:B50" xr:uid="{86C45E49-9757-42EB-8771-8C8BA552DA4F}">
       <formula1>$E$2:$E$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
+++ b/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping_With_BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A02C65-C9F3-4544-A1FA-BA10D7F54DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4596A7-72AA-4A67-8883-C32FB6B4D677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="27555" yWindow="2850" windowWidth="27735" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,13 +698,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>

--- a/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
+++ b/Webscraping_With_BeautifulSoup/LevermannInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping_With_BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4596A7-72AA-4A67-8883-C32FB6B4D677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEF1050E-E9AA-4B62-9DA3-F265F5114B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="27555" yWindow="2850" windowWidth="27735" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,13 +698,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
